--- a/05_Win32Api/021 CE练习.xlsx
+++ b/05_Win32Api/021 CE练习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC5421-624E-4DD4-A082-221B4E33C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B005AC-E0A6-4B36-B01F-B7D88B393F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>CE内存搜索工具的使用</t>
   </si>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>1、同step 5，esi + 0x18(偏移) 就是3883的内存地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[地址+偏移] 来操作数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数据 极有可能是 结构体</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -219,12 +227,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,30 +1590,45 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:G15"/>
+  <dimension ref="B4:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:12">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="J4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="J5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:12">
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1636,7 @@
         <v>90453</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:12">
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1612,7 +1644,7 @@
         <v>419482</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:12">
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1652,7 @@
         <v>890124</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:12">
       <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1663,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:12">
       <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1643,7 +1675,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:12">
       <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1686,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:12">
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
@@ -1665,7 +1697,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:12">
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1803,9 @@
   </sheetPr>
   <dimension ref="B3:I123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
@@ -1857,8 +1891,8 @@
   </sheetPr>
   <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1939,41 +1973,54 @@
   </sheetPr>
   <dimension ref="B2:R148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:15">
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="M2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="M3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="1"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:15">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:15">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:15">
       <c r="D16" s="2"/>
     </row>
     <row r="18" spans="2:8">
@@ -2032,7 +2079,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>